--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0025-006 - Abnormal Skenario Admin SLN mengakses Report Log Pengiriman WA pada Digi Sales Portal.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0025-006 - Abnormal Skenario Admin SLN mengakses Report Log Pengiriman WA pada Digi Sales Portal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74211ECB-29D9-41B7-863D-7DC355F59751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7977D65A-3F27-4456-8BB0-576D93058DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0336" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0025" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,9 +80,6 @@
     <t>Log Pengiriman WA</t>
   </si>
   <si>
-    <t>DGS-351</t>
-  </si>
-  <si>
     <t>Abnormal Skenario Admin SLN mengakses Report Log Pengiriman WA pada Digi Sales Portal</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
  - Klik generate tanpa isi field date dan tipe log WA
  - Klik export to csv tanpa isi field date dan tipe log WA
  - Muncul alert “Isi parameter terlebih dahulu”</t>
+  </si>
+  <si>
+    <t>SCD0025-006</t>
   </si>
 </sst>
 </file>
@@ -541,13 +541,13 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -617,16 +617,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="17">
         <v>52326</v>
@@ -644,10 +644,10 @@
       <c r="K2" s="14"/>
       <c r="L2" s="17" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy/mm/dd") &amp;" - "&amp; TEXT(TODAY(),"yyyy/mm/dd")&amp;","&amp;""&amp;","&amp;""</f>
-        <v>2022/11/07 - 2022/11/07,,</v>
+        <v>2022/11/10 - 2022/11/10,,</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
